--- a/biology/Botanique/Strate_herbacée/Strate_herbacée.xlsx
+++ b/biology/Botanique/Strate_herbacée/Strate_herbacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strate_herbac%C3%A9e</t>
+          <t>Strate_herbacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la botanique, la strate herbacée est l'une des 5 strates végétales utilisées par les botanistes pour décrire les principaux niveaux d'étagement vertical d'un peuplement végétal, chacun étant caractérisé par un microclimat, et une faune spécifique.
 C'est la strate des plantes herbacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strate_herbac%C3%A9e</t>
+          <t>Strate_herbacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est composée de plantes herbacées (dont notamment herbes et adventices), jusqu'à 1 m, 1,50 m de hauteur à maturité;
 C'est la strate dominante dans de nombreux milieux ouverts terrestres ; pelouse, lande rase, tourbière, prairie… tant que l'ouverture de ces milieux est préservée de l'embroussaillement par les conditions microclimatiques, ou les grands et petits herbivores, s'ils sont assez nombreux pour contrôler la pousse des arbres. C'est le milieu également dominant en haute montagne au-dessus de la zone où les arbres ne peuvent plus pousser.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strate_herbac%C3%A9e</t>
+          <t>Strate_herbacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La strate herbacée en l'absence de contrainte pour les arbres et buissons évolue généralement vers la strate arbustive (composée d'arbustes ou buissons mesurant de 1,5 m à 7 m à l'état adulte), puis la strate arborée composée d'arbres dont la hauteur débute vers les 8 m, jusqu'à ce qu'une perturbation (humaine ou naturelle, tempête, incendie..) ne rouvre le milieu forestier pour y produire une clairière.
 La strate herbacée évolue dans l'espace et dans le temps, au rythme des perturbations écologiques et de la régénération naturelle (ou des cycles sylvigénétiques dans le cas de la forêt gérée).
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strate_herbac%C3%A9e</t>
+          <t>Strate_herbacée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,17 +599,19 @@
           <t>Restauration de strates herbacées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La valeur écologique et paysagère de la strate herbacée semble intéresser de plus en plus les acteurs du paysage et le grand public. Les bandes enherbées restent très pauvres en biodiversité quand elles sont installées pour des objectifs uniquement agricoles et de protection des cours d'eau. Les jachères fleuries présentent un grand intérêt paysager, mais les lots de graines commercialisés sont rarement appropriés au biotope et les jachères à vocation cynégétique ou mellifères utilisent nombre de graines de provenance exotique.
 Dans un contexte d'eutrophisation générale, pour les besoins de la restauration de la biodiversité, des gestionnaires de réserves naturelles et de milieux ont développé diverses méthodes de génie écologique visant à déseutrophiser le sol superficiel et à restaurer la biodiversité de la strate herbacée.
 Parmi ces méthodes on peut citer ;
 scrappage de la couche eutrophe pour mise à jour et expression de la cryptobanque de graines du sol
 réintroduction d'espèces à partir de plants ou de semences
-gestion restauratoire puis conservatoire utilisant par exemple le pâturage et/ou la fauche avec exportation[1]
+gestion restauratoire puis conservatoire utilisant par exemple le pâturage et/ou la fauche avec exportation
 restauration de sous-bois fleuris dès le stade d'une plantation sur sol retourné et recouvert d'une couche pauvre venant du sol profond ("Soil inversion") pour les anglo-saxons. Sur ce sol, les fleurs sauvages prospèrent, sans concurrence en surface sur une couche oligotrophe, alors que les arbres trouvent en profondeur une couche très riche dans laquelle leurs racines peuvent rapidement prospérer.
 …
-Ces opérations portent souvent sur des landes, prairies, pelouses calcaires, lisières de zones humides, tourbières[2], etc. Quelques opérations de restauration de sous-bois fleuris ou de restauration de forêt à strate herbacée riche en biodiversité ont été conduites avec succès au Royaume-Uni par deux ONG spécialisées dans la biologie de la conservation (Woodland Trust et Landlife) [3].
+Ces opérations portent souvent sur des landes, prairies, pelouses calcaires, lisières de zones humides, tourbières, etc. Quelques opérations de restauration de sous-bois fleuris ou de restauration de forêt à strate herbacée riche en biodiversité ont été conduites avec succès au Royaume-Uni par deux ONG spécialisées dans la biologie de la conservation (Woodland Trust et Landlife) .
 </t>
         </is>
       </c>
